--- a/SPRINT3/FORMATO SEGUIMIENTO-SPRINT3.xlsx
+++ b/SPRINT3/FORMATO SEGUIMIENTO-SPRINT3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BrandonMedina/Documents/ACADEMICO/MISION TIC/CICLO 3/DESARROLLO DE SOFTWARE/MINTIC-84-02/SPRINT3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BRANDON\ACADEMICO\MISION TIC\CICLO 3\DESARROLLO DE SOFTWARE\MINTIC-84-02\SPRINT3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A9C397-D8C8-BC43-94B2-06257FB6914C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -749,6 +748,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,105 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -885,241 +884,13 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1128,6 +899,9 @@
           <color indexed="64"/>
         </left>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1137,6 +911,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1152,7 +929,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border outline="0">
@@ -1168,10 +944,86 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1180,6 +1032,9 @@
           <color indexed="64"/>
         </left>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1189,6 +1044,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1204,7 +1062,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border outline="0">
@@ -1218,6 +1075,76 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1268,7 +1195,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <border outline="0">
@@ -1282,6 +1208,76 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1452,15 +1448,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2E779C0B-0CFF-7C44-862F-42F29D058CC6}" name="Distribucion24" displayName="Distribucion24" ref="A1:F8" totalsRowCount="1" headerRowDxfId="35">
-  <autoFilter ref="A1:F7" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Distribucion24" displayName="Distribucion24" ref="A1:F8" totalsRowCount="1" headerRowDxfId="46">
+  <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6D217DF5-B563-774D-BF0B-E80DD3223DC5}" name="ID" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{16EE7DF3-0F5B-DA43-AE03-0FDCCC0222E3}" name="VALOR" dataDxfId="33" totalsRowDxfId="3" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{6A448341-337B-044D-BDBF-7D179A037791}" name="ACTIVIDAD" dataDxfId="32" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{0BCF58A3-F4E8-0B48-B2C5-D57D952F3556}" name="RESPONSABLE" dataDxfId="31" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{54FF6FC4-57B6-984A-A4FE-707246B0EC70}" name="ESTADO" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{268A7514-2798-804B-A015-F413972A2A22}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="45"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="38"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1469,15 +1465,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{203F25A2-6A02-334E-AD16-2C8D1DEA7730}" name="Distribucion2" displayName="Distribucion2" ref="A1:F8" totalsRowCount="1" headerRowDxfId="42">
-  <autoFilter ref="A1:F7" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Distribucion2" displayName="Distribucion2" ref="A1:F8" totalsRowCount="1" headerRowDxfId="28">
+  <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AFA461FD-532F-264B-888A-36F9C2A1645E}" name="ID" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{CDD8C999-7537-3543-BEE0-79EA489978D3}" name="VALOR" dataDxfId="40" totalsRowDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{1E3F3FB2-DA52-294D-9238-FF9EFB3D717D}" name="ACTIVIDAD" dataDxfId="39" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0C0E07B9-AEE7-E643-AAC6-8DC2FC9E3014}" name="RESPONSABLE" dataDxfId="38" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D0018DBA-DEA2-524F-AE4E-3A1FC6D80692}" name="ESTADO" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{9DA250FA-CA54-AD46-A7D0-EDA8AEBAE686}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="4" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="27"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="20"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1486,15 +1482,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DD23BDD-0C6B-9546-BC60-2B699E1DBBD8}" name="Distribucion" displayName="Distribucion" ref="A1:F8" totalsRowCount="1" headerRowDxfId="53">
-  <autoFilter ref="A1:F7" xr:uid="{C6771560-9D89-3142-9F9C-47C6E5E14ADD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Distribucion" displayName="Distribucion" ref="A1:F8" totalsRowCount="1" headerRowDxfId="10">
+  <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{73C66182-65A3-1E48-B252-9CA7D86615F7}" name="ID" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{38DA5FEB-20A4-EE4A-9128-74DFB57CD030}" name="VALOR" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" xr3:uid="{71F59E7D-B04C-E04A-9AFF-C00FB83CFA4D}" name="ACTIVIDAD" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{DA1AAC07-60AB-BF43-8A94-8802E652232B}" name="RESPONSABLE" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{8C839BBF-3DCE-0441-99C9-D9C276414CC3}" name="ESTADO" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{B9AFE5A4-3815-444E-84B9-842AFAFA53BB}" name="PROGRESO" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="9"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="2"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1764,25 +1760,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30953C18-D402-474E-9F52-63E7C872EAD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="4" width="50.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -1798,313 +1794,317 @@
       <c r="E1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="29">
         <v>44809</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="41"/>
-      <c r="G2" s="29" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="57"/>
+      <c r="G2" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="42"/>
-      <c r="G3" s="29" t="s">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="58"/>
+      <c r="G3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="42"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="58"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="42"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="58"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="42"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="58"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="29">
         <v>44812</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="42"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="60"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="58"/>
       <c r="G9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="42"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="58"/>
       <c r="G10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="66">
         <v>44812</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="42"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="58"/>
       <c r="G11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="29">
         <v>44814</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="65"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="66"/>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="66"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="66"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="66"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="67"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="66"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="66"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="66"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="69"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="66"/>
-    </row>
-    <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="67"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="47"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="48"/>
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="65"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="66"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="66"/>
-    </row>
-    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="66"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="66"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="67"/>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="47"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="47"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="47"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="E20:E25"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -2121,27 +2121,23 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B8:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2149,24 +2145,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E6200E-124C-644A-916B-72B25AB7F4F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2205,7 +2201,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2243,7 +2239,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2262,7 +2258,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2282,7 +2278,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2301,7 +2297,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2310,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2328,7 +2324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -2382,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>34</v>
       </c>
@@ -2400,42 +2396,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="28" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{F79BF540-408D-8F42-BF0C-474A526DFC2B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{CAA6124A-B374-9C4F-A8EF-A8FC449C6565}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2447,24 +2443,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320745C7-7331-E04D-A094-37148C6A9E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2503,7 +2499,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2541,7 +2537,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2599,7 +2595,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2608,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2626,7 +2622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -2644,7 +2640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2662,7 +2658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>34</v>
       </c>
@@ -2698,42 +2694,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{690F6D13-03F9-C84F-ACF1-6D601751B886}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{2BAD1285-6C3A-CA48-8100-1C88CEF7A36B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2745,24 +2741,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB54409-1CE7-2449-8423-28A02DE4E2D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="9" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2816,7 +2812,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2833,7 +2829,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2850,7 +2846,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2868,7 +2864,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2894,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2912,7 +2908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
@@ -2930,7 +2926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2948,7 +2944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
@@ -2966,7 +2962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
         <v>34</v>
       </c>
@@ -2984,42 +2980,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E7 E2">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>($E2="HECHO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>($E2="HACIENDO")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>($E2="HACER")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0.67</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="between">
       <formula>0.34</formula>
       <formula>0.66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{4FD64113-ED80-0F43-95A9-9DBF9E178A47}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7 E2" xr:uid="{6E820B98-BCB9-B74E-A3AF-83B065D33FFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7 E2">
       <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
     </dataValidation>
   </dataValidations>

--- a/SPRINT3/FORMATO SEGUIMIENTO-SPRINT3.xlsx
+++ b/SPRINT3/FORMATO SEGUIMIENTO-SPRINT3.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="SEGUIMIENTO 10-09-2022" sheetId="19" r:id="rId2"/>
-    <sheet name="TUTORIA 08-09-2022" sheetId="18" r:id="rId3"/>
-    <sheet name="DISTRIBUCION 05-09-2022" sheetId="16" r:id="rId4"/>
+    <sheet name="SEGUIMIENTO 12-09-2022" sheetId="20" r:id="rId2"/>
+    <sheet name="SEGUIMIENTO 10-09-2022" sheetId="19" r:id="rId3"/>
+    <sheet name="TUTORIA 08-09-2022" sheetId="18" r:id="rId4"/>
+    <sheet name="DISTRIBUCION 05-09-2022" sheetId="16" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -177,6 +178,15 @@
   </si>
   <si>
     <t>Creacion de la Solucion Inventario.App y sus capas</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 2</t>
+  </si>
+  <si>
+    <t>HECHO</t>
+  </si>
+  <si>
+    <t>Capa de Servicios</t>
   </si>
 </sst>
 </file>
@@ -879,7 +889,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="72">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -1064,11 +1074,134 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
-        <right style="thin">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1302,8 +1435,8 @@
       <xdr:rowOff>183445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3073399</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1058</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
     </xdr:to>
@@ -1352,8 +1485,8 @@
       <xdr:rowOff>119944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3082496</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>338667</xdr:rowOff>
     </xdr:to>
@@ -1397,13 +1530,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>70556</xdr:colOff>
+      <xdr:colOff>28223</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>225777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3073402</xdr:colOff>
+      <xdr:colOff>2678644</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>197556</xdr:rowOff>
     </xdr:to>
@@ -1434,8 +1567,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10851445" y="5206999"/>
-          <a:ext cx="3002846" cy="1876779"/>
+          <a:off x="9447390" y="5199944"/>
+          <a:ext cx="2650421" cy="1876779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51855</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2688166</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>337864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9471022" y="7641166"/>
+          <a:ext cx="2636311" cy="1480865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1448,6 +1625,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Distribucion245" displayName="Distribucion245" ref="A1:F8" totalsRowCount="1" headerRowDxfId="64">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="63"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="56"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Distribucion24" displayName="Distribucion24" ref="A1:F8" totalsRowCount="1" headerRowDxfId="46">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
@@ -1464,7 +1658,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Distribucion2" displayName="Distribucion2" ref="A1:F8" totalsRowCount="1" headerRowDxfId="28">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
@@ -1481,7 +1675,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Distribucion" displayName="Distribucion" ref="A1:F8" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
@@ -1763,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,8 +2188,12 @@
       <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="29">
+        <v>44816</v>
+      </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
       <c r="E20" s="46"/>
@@ -2148,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,7 +2384,319 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="6">
+        <f>SUBTOTAL(109,Distribucion245[PROGRESO])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"HACER")</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"HACIENDO")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"HECHO")</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="expression" dxfId="71" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C2" s="27" t="s">
         <v>37</v>
       </c>
@@ -2205,7 +2715,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C3" s="27" t="s">
         <v>38</v>
       </c>
@@ -2224,9 +2736,11 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C4" s="27" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -2243,7 +2757,9 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C5" s="27" t="s">
         <v>40</v>
       </c>
@@ -2262,7 +2778,9 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C6" s="27" t="s">
         <v>41</v>
       </c>
@@ -2282,7 +2800,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
       <c r="C7" s="28" t="s">
         <v>42</v>
       </c>
@@ -2442,12 +2962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,7 +3004,9 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C2" s="27" t="s">
         <v>37</v>
       </c>
@@ -2503,7 +3025,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C3" s="27" t="s">
         <v>38</v>
       </c>
@@ -2522,9 +3046,11 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C4" s="27" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>32</v>
@@ -2541,7 +3067,9 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C5" s="27" t="s">
         <v>40</v>
       </c>
@@ -2560,7 +3088,9 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C6" s="27" t="s">
         <v>41</v>
       </c>
@@ -2580,7 +3110,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
       <c r="C7" s="28" t="s">
         <v>42</v>
       </c>
@@ -2740,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>

--- a/SPRINT3/FORMATO SEGUIMIENTO-SPRINT3.xlsx
+++ b/SPRINT3/FORMATO SEGUIMIENTO-SPRINT3.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INFORME SPRINT" sheetId="12" r:id="rId1"/>
-    <sheet name="SEGUIMIENTO 12-09-2022" sheetId="20" r:id="rId2"/>
-    <sheet name="SEGUIMIENTO 10-09-2022" sheetId="19" r:id="rId3"/>
-    <sheet name="TUTORIA 08-09-2022" sheetId="18" r:id="rId4"/>
-    <sheet name="DISTRIBUCION 05-09-2022" sheetId="16" r:id="rId5"/>
+    <sheet name="SEGUIMIENTO 21-09-2022" sheetId="22" r:id="rId2"/>
+    <sheet name="SEGUIMIENTO 20-09-2022" sheetId="21" r:id="rId3"/>
+    <sheet name="SEGUIMIENTO 12-09-2022" sheetId="20" r:id="rId4"/>
+    <sheet name="SEGUIMIENTO 10-09-2022" sheetId="19" r:id="rId5"/>
+    <sheet name="TUTORIA 08-09-2022" sheetId="18" r:id="rId6"/>
+    <sheet name="DISTRIBUCION 05-09-2022" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -187,6 +189,12 @@
   </si>
   <si>
     <t>Capa de Servicios</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 3</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO 4</t>
   </si>
 </sst>
 </file>
@@ -889,7 +897,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="108">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -898,9 +906,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -923,7 +928,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -948,6 +953,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1027,13 +1035,22 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1056,7 +1073,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1074,6 +1091,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1202,6 +1227,11 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1313,6 +1343,250 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1621,19 +1895,129 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>338667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2685718</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>306796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9450917" y="9884834"/>
+          <a:ext cx="2653968" cy="1492129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2689467</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>378354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9440333" y="12234334"/>
+          <a:ext cx="2668301" cy="1500187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Distribucion245" displayName="Distribucion245" ref="A1:F8" totalsRowCount="1" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Distribucion24567" displayName="Distribucion24567" ref="A1:F8" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="63"/>
-    <tableColumn id="5" name="VALOR" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="6" name="RESPONSABLE" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="3" name="ESTADO" dataDxfId="56"/>
-    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="9"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="7" totalsRowDxfId="8" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="5" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="2"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Distribucion24567[[#This Row],[ESTADO]]="HECHO",Distribucion24567[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Distribucion2456" displayName="Distribucion2456" ref="A1:F8" totalsRowCount="1" headerRowDxfId="32">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="31"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="29" totalsRowDxfId="30" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="27" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="25" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="24"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="23" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>IF(Distribucion2456[[#This Row],[ESTADO]]="HECHO",Distribucion2456[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Distribucion245" displayName="Distribucion245" ref="A1:F8" totalsRowCount="1" headerRowDxfId="100">
+  <autoFilter ref="A1:F7"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="99"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="98" totalsRowDxfId="21" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="97" totalsRowDxfId="20"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="96" totalsRowDxfId="19"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="95"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="18" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1641,16 +2025,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Distribucion24" displayName="Distribucion24" ref="A1:F8" totalsRowCount="1" headerRowDxfId="46">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Distribucion24" displayName="Distribucion24" ref="A1:F8" totalsRowCount="1" headerRowDxfId="86">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="45"/>
-    <tableColumn id="5" name="VALOR" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="6" name="RESPONSABLE" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="3" name="ESTADO" dataDxfId="38"/>
-    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="85"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="78"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1658,16 +2042,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Distribucion2" displayName="Distribucion2" ref="A1:F8" totalsRowCount="1" headerRowDxfId="28">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Distribucion2" displayName="Distribucion2" ref="A1:F8" totalsRowCount="1" headerRowDxfId="68">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="27"/>
-    <tableColumn id="5" name="VALOR" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="6" name="RESPONSABLE" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" name="ESTADO" dataDxfId="20"/>
-    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="67"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="60"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1675,16 +2059,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Distribucion" displayName="Distribucion" ref="A1:F8" totalsRowCount="1" headerRowDxfId="10">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Distribucion" displayName="Distribucion" ref="A1:F8" totalsRowCount="1" headerRowDxfId="50">
   <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="9"/>
-    <tableColumn id="5" name="VALOR" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentaje"/>
-    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="RESPONSABLE" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="ESTADO" dataDxfId="2"/>
-    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="1" name="ID" dataDxfId="49"/>
+    <tableColumn id="5" name="VALOR" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Porcentaje"/>
+    <tableColumn id="2" name="ACTIVIDAD" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="6" name="RESPONSABLE" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="3" name="ESTADO" dataDxfId="42"/>
+    <tableColumn id="4" name="PROGRESO" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1955,10 +2339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,8 +2623,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="29">
+        <v>44824</v>
+      </c>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
       <c r="E26" s="46"/>
@@ -2280,8 +2668,63 @@
       <c r="D31" s="50"/>
       <c r="E31" s="48"/>
     </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="29">
+        <v>44825</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="47"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="47"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="63">
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
@@ -2346,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2840,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="5">
-        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion24567[[#This Row],[ESTADO]]="HECHO",Distribucion24567[[#This Row],[VALOR]]," ")</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2418,7 +2861,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="5">
-        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion24567[[#This Row],[ESTADO]]="HECHO",Distribucion24567[[#This Row],[VALOR]]," ")</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2439,7 +2882,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="5">
-        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion24567[[#This Row],[ESTADO]]="HECHO",Distribucion24567[[#This Row],[VALOR]]," ")</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2460,7 +2903,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="5">
-        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion24567[[#This Row],[ESTADO]]="HECHO",Distribucion24567[[#This Row],[VALOR]]," ")</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2481,7 +2924,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="5">
-        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion24567[[#This Row],[ESTADO]]="HECHO",Distribucion24567[[#This Row],[VALOR]]," ")</f>
         <v>0.1</v>
       </c>
       <c r="H6" s="6"/>
@@ -2500,10 +2943,10 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="26" t="str">
-        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <f>IF(Distribucion24567[[#This Row],[ESTADO]]="HECHO",Distribucion24567[[#This Row],[VALOR]]," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -2512,7 +2955,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="F8" s="6">
-        <f>SUBTOTAL(109,Distribucion245[PROGRESO])</f>
+        <f>SUBTOTAL(109,Distribucion24567[PROGRESO])</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2521,8 +2964,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <f>COUNTIF(Distribucion245[ESTADO],"HACER")</f>
-        <v>1</v>
+        <f>COUNTIF(Distribucion24567[ESTADO],"HACER")</f>
+        <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>18</v>
@@ -2539,8 +2982,8 @@
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <f>COUNTIF(Distribucion245[ESTADO],"HACIENDO")</f>
-        <v>0</v>
+        <f>COUNTIF(Distribucion24567[ESTADO],"HACIENDO")</f>
+        <v>1</v>
       </c>
       <c r="G11" s="20">
         <v>1</v>
@@ -2557,7 +3000,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <f>COUNTIF(Distribucion245[ESTADO],"VERIFICAR")</f>
+        <f>COUNTIF(Distribucion24567[ESTADO],"VERIFICAR")</f>
         <v>0</v>
       </c>
       <c r="G12" s="20">
@@ -2575,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <f>COUNTIF(Distribucion245[ESTADO],"HECHO")</f>
+        <f>COUNTIF(Distribucion24567[ESTADO],"HECHO")</f>
         <v>5</v>
       </c>
       <c r="G13" s="20">
@@ -2593,7 +3036,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="2">
-        <f>COUNTIF(Distribucion245[ESTADO],"POSPUESTO")</f>
+        <f>COUNTIF(Distribucion24567[ESTADO],"POSPUESTO")</f>
         <v>0</v>
       </c>
       <c r="G14" s="20">
@@ -2612,912 +3055,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="71" priority="4" stopIfTrue="1">
-      <formula>($E2="VERIFICAR")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
-      <formula>($E2="HECHO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
-      <formula>($E2="HACIENDO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="7" stopIfTrue="1">
-      <formula>($E2="HACER")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="67" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>0.67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" stopIfTrue="1" operator="between">
-      <formula>0.34</formula>
-      <formula>0.66</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0.33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
-      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
-      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="26" t="str">
-        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="F8" s="6">
-        <f>SUBTOTAL(109,Distribucion24[PROGRESO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <f>COUNTIF(Distribucion24[ESTADO],"HACER")</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <f>COUNTIF(Distribucion24[ESTADO],"HACIENDO")</f>
-        <v>5</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <f>COUNTIF(Distribucion24[ESTADO],"VERIFICAR")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
-        <f>COUNTIF(Distribucion24[ESTADO],"HECHO")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>3</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2">
-        <f>COUNTIF(Distribucion24[ESTADO],"POSPUESTO")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
-      <formula>($E2="VERIFICAR")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="5" stopIfTrue="1">
-      <formula>($E2="HECHO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="6" stopIfTrue="1">
-      <formula>($E2="HACIENDO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="7" stopIfTrue="1">
-      <formula>($E2="HACER")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>0.67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" stopIfTrue="1" operator="between">
-      <formula>0.34</formula>
-      <formula>0.66</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0.33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
-      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
-      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="26" t="str">
-        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="F8" s="6">
-        <f>SUBTOTAL(109,Distribucion2[PROGRESO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <f>COUNTIF(Distribucion2[ESTADO],"HACER")</f>
-        <v>6</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <f>COUNTIF(Distribucion2[ESTADO],"HACIENDO")</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <f>COUNTIF(Distribucion2[ESTADO],"VERIFICAR")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
-        <f>COUNTIF(Distribucion2[ESTADO],"HECHO")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>3</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2">
-        <f>COUNTIF(Distribucion2[ESTADO],"POSPUESTO")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
-      <formula>($E2="VERIFICAR")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
-      <formula>($E2="HECHO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="6" stopIfTrue="1">
-      <formula>($E2="HACIENDO")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
-      <formula>($E2="HACER")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>0.67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="between">
-      <formula>0.34</formula>
-      <formula>0.66</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0.33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
-      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
-      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="24.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="26" t="str">
-        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="F8" s="6">
-        <f>SUBTOTAL(109,Distribucion[PROGRESO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <f>COUNTIF(Distribucion[ESTADO],"HACER")</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <f>COUNTIF(Distribucion[ESTADO],"HACIENDO")</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <f>COUNTIF(Distribucion[ESTADO],"VERIFICAR")</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2">
-        <f>COUNTIF(Distribucion[ESTADO],"HECHO")</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>3</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2">
-        <f>COUNTIF(Distribucion[ESTADO],"POSPUESTO")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E4:E7 E2">
     <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>($E2="VERIFICAR")</formula>
     </cfRule>
@@ -3544,6 +3081,1532 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(Distribucion2456[[#This Row],[ESTADO]]="HECHO",Distribucion2456[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(Distribucion2456[[#This Row],[ESTADO]]="HECHO",Distribucion2456[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IF(Distribucion2456[[#This Row],[ESTADO]]="HECHO",Distribucion2456[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IF(Distribucion2456[[#This Row],[ESTADO]]="HECHO",Distribucion2456[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="5">
+        <f>IF(Distribucion2456[[#This Row],[ESTADO]]="HECHO",Distribucion2456[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f>IF(Distribucion2456[[#This Row],[ESTADO]]="HECHO",Distribucion2456[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="6">
+        <f>SUBTOTAL(109,Distribucion2456[PROGRESO])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Distribucion2456[ESTADO],"HACER")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Distribucion2456[ESTADO],"HACIENDO")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Distribucion2456[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Distribucion2456[ESTADO],"HECHO")</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Distribucion2456[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="5">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f>IF(Distribucion245[[#This Row],[ESTADO]]="HECHO",Distribucion245[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="6">
+        <f>SUBTOTAL(109,Distribucion245[PROGRESO])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"HACER")</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"HACIENDO")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"HECHO")</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Distribucion245[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="expression" dxfId="107" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="103" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f>IF(Distribucion24[[#This Row],[ESTADO]]="HECHO",Distribucion24[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="6">
+        <f>SUBTOTAL(109,Distribucion24[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Distribucion24[ESTADO],"HACER")</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Distribucion24[ESTADO],"HACIENDO")</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Distribucion24[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Distribucion24[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Distribucion24[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="expression" dxfId="93" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f>IF(Distribucion2[[#This Row],[ESTADO]]="HECHO",Distribucion2[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="6">
+        <f>SUBTOTAL(109,Distribucion2[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Distribucion2[ESTADO],"HACER")</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Distribucion2[ESTADO],"HACIENDO")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Distribucion2[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Distribucion2[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Distribucion2[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="expression" dxfId="75" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="71" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+      <formula1>"HACER, HACIENDO, HECHO, POSPUESTO, VERIFICAR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+      <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="26" t="str">
+        <f>IF(Distribucion[[#This Row],[ESTADO]]="HECHO",Distribucion[[#This Row],[VALOR]]," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="6">
+        <f>SUBTOTAL(109,Distribucion[PROGRESO])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"HACER")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"HACIENDO")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"VERIFICAR")</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"HECHO")</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>3</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <f>COUNTIF(Distribucion[ESTADO],"POSPUESTO")</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E4:E7 E2">
+    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
+      <formula>($E2="VERIFICAR")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
+      <formula>($E2="HECHO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+      <formula>($E2="HACIENDO")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="7" stopIfTrue="1">
+      <formula>($E2="HACER")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>0.67</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="2" stopIfTrue="1" operator="between">
+      <formula>0.34</formula>
+      <formula>0.66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
       <formula1>"ALEJANDRO GARCIA, BRANDON MEDINA, HELVER ROA , JOHAN MATOMA, PAULA VILLARREAL"</formula1>
     </dataValidation>
